--- a/Documents/Helios Matrix.xlsx
+++ b/Documents/Helios Matrix.xlsx
@@ -2638,7 +2638,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="5" sqref="A11:XFD11 A17:XFD17 A5:XFD5 A4:XFD4 A3:XFD3 A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Helios Matrix.xlsx
+++ b/Documents/Helios Matrix.xlsx
@@ -2638,7 +2638,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4063,7 +4063,9 @@
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5">
+        <v>5</v>
+      </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>

--- a/Documents/Helios Matrix.xlsx
+++ b/Documents/Helios Matrix.xlsx
@@ -364,6 +364,1471 @@
   <dxfs count="96">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -481,1471 +1946,6 @@
           <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1958,36 +1958,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle1" displayName="Tabelle1" ref="A1:AB27" headerRowCount="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle1" displayName="Tabelle1" ref="A1:AB27" headerRowCount="0" headerRowDxfId="83" dataDxfId="82">
   <tableColumns count="28">
-    <tableColumn id="1" name="Spalte1" totalsRowLabel="Ergebnis" dataDxfId="92" totalsRowDxfId="93"/>
-    <tableColumn id="40" name="Spalte40" dataDxfId="90" totalsRowDxfId="91"/>
-    <tableColumn id="2" name="Spalte2" headerRowDxfId="88" dataDxfId="87" totalsRowDxfId="89"/>
-    <tableColumn id="3" name="Spalte3" headerRowDxfId="85" dataDxfId="84" totalsRowDxfId="86"/>
-    <tableColumn id="41" name="Spalte41" headerRowDxfId="82" dataDxfId="81" totalsRowDxfId="83"/>
-    <tableColumn id="4" name="Spalte4" headerRowDxfId="79" dataDxfId="78" totalsRowDxfId="80"/>
-    <tableColumn id="5" name="Spalte5" headerRowDxfId="76" dataDxfId="75" totalsRowDxfId="77"/>
-    <tableColumn id="42" name="Spalte10" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="74"/>
-    <tableColumn id="6" name="Spalte6" headerRowDxfId="70" dataDxfId="69" totalsRowDxfId="71"/>
-    <tableColumn id="7" name="Spalte7" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="68"/>
-    <tableColumn id="8" name="Spalte8" headerRowDxfId="64" dataDxfId="63" totalsRowDxfId="65"/>
-    <tableColumn id="9" name="Spalte9" headerRowDxfId="61" dataDxfId="60" totalsRowDxfId="62"/>
-    <tableColumn id="11" name="Spalte11" headerRowDxfId="58" dataDxfId="57" totalsRowDxfId="59"/>
-    <tableColumn id="12" name="Spalte12" headerRowDxfId="55" dataDxfId="54" totalsRowDxfId="56"/>
-    <tableColumn id="13" name="Spalte13" headerRowDxfId="52" dataDxfId="51" totalsRowDxfId="53"/>
-    <tableColumn id="14" name="Spalte14" headerRowDxfId="49" dataDxfId="48" totalsRowDxfId="50"/>
-    <tableColumn id="15" name="Spalte15" headerRowDxfId="46" dataDxfId="45" totalsRowDxfId="47"/>
-    <tableColumn id="16" name="Spalte16" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="44"/>
-    <tableColumn id="17" name="Spalte17" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="41"/>
-    <tableColumn id="18" name="Spalte18" headerRowDxfId="37" dataDxfId="36" totalsRowDxfId="38"/>
-    <tableColumn id="19" name="Spalte19" headerRowDxfId="34" dataDxfId="33" totalsRowDxfId="35"/>
-    <tableColumn id="43" name="Spalte42" headerRowDxfId="31" dataDxfId="30" totalsRowDxfId="32"/>
-    <tableColumn id="20" name="Spalte20" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="29"/>
-    <tableColumn id="21" name="Spalte21" headerRowDxfId="25" dataDxfId="24" totalsRowDxfId="26"/>
-    <tableColumn id="22" name="Spalte22" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="23"/>
-    <tableColumn id="23" name="Spalte23" headerRowDxfId="19" dataDxfId="18" totalsRowDxfId="20"/>
-    <tableColumn id="24" name="Spalte24" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="17"/>
-    <tableColumn id="10" name="Spalte25" headerRowDxfId="13" dataDxfId="14" totalsRowDxfId="12"/>
+    <tableColumn id="1" name="Spalte1" totalsRowLabel="Ergebnis" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="40" name="Spalte40" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="2" name="Spalte2" headerRowDxfId="77" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="3" name="Spalte3" headerRowDxfId="74" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="41" name="Spalte41" headerRowDxfId="71" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="4" name="Spalte4" headerRowDxfId="68" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="5" name="Spalte5" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="42" name="Spalte10" headerRowDxfId="62" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="6" name="Spalte6" headerRowDxfId="59" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="7" name="Spalte7" headerRowDxfId="56" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="8" name="Spalte8" headerRowDxfId="53" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="9" name="Spalte9" headerRowDxfId="50" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="11" name="Spalte11" headerRowDxfId="47" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="12" name="Spalte12" headerRowDxfId="44" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="13" name="Spalte13" headerRowDxfId="41" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="14" name="Spalte14" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="15" name="Spalte15" headerRowDxfId="35" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="16" name="Spalte16" headerRowDxfId="32" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="17" name="Spalte17" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="18" name="Spalte18" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="19" name="Spalte19" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="43" name="Spalte42" headerRowDxfId="20" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="20" name="Spalte20" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="21" name="Spalte21" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="22" name="Spalte22" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="23" name="Spalte23" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="24" name="Spalte24" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="10" name="Spalte25" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -2282,9 +2282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN20" sqref="AN20"/>
+      <selection pane="bottomLeft" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3708,46 +3708,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AA26">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:AA27">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB26">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB27">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/Helios Matrix.xlsx
+++ b/Documents/Helios Matrix.xlsx
@@ -2282,9 +2282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S19" sqref="S19"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,8 +2414,12 @@
       <c r="C2" s="8">
         <v>-30</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
       <c r="F2" s="5">
         <v>5</v>
       </c>

--- a/Documents/Helios Matrix.xlsx
+++ b/Documents/Helios Matrix.xlsx
@@ -2282,9 +2282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="15"/>
     </row>

--- a/Documents/Helios Matrix.xlsx
+++ b/Documents/Helios Matrix.xlsx
@@ -2284,7 +2284,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N33" sqref="N33"/>
+      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,7 +2657,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
@@ -2711,7 +2711,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="5">
         <v>15</v>
@@ -2779,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -2825,7 +2825,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -2871,7 +2871,7 @@
         <v>-5</v>
       </c>
       <c r="P10" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -2912,7 +2912,9 @@
       <c r="M11" s="5">
         <v>5</v>
       </c>
-      <c r="N11" s="5"/>
+      <c r="N11" s="5">
+        <v>5</v>
+      </c>
       <c r="O11" s="5">
         <v>5</v>
       </c>
@@ -3165,7 +3167,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="4">
         <v>-15</v>
@@ -3188,7 +3190,7 @@
       </c>
       <c r="AB16" s="15"/>
     </row>
-    <row r="17" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
@@ -3209,10 +3211,10 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R17" s="4">
         <v>2</v>
